--- a/Tests/Validation/Wheat/data/Lincoln2023.xlsx
+++ b/Tests/Validation/Wheat/data/Lincoln2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepos\ApsimX\Tests\Validation\Wheat\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B67F32-A7E7-4203-9A79-F3875BDD8800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F722E7F-5137-45F8-B8F7-520B820C66B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Info" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Observed!$C$1:$C$1866</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Observed!$A$1:$AE$1866</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -782,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE1866"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AB1634" sqref="AB1634:AB1866"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28309,9 +28309,6 @@
       <c r="AD1602">
         <v>6.2205981116799702E-2</v>
       </c>
-      <c r="AE1602">
-        <v>0</v>
-      </c>
     </row>
     <row r="1603" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1603" t="s">
@@ -28329,9 +28326,6 @@
       <c r="AD1603">
         <v>4.90131449963426E-2</v>
       </c>
-      <c r="AE1603">
-        <v>0</v>
-      </c>
     </row>
     <row r="1604" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1604" t="s">
@@ -28349,9 +28343,6 @@
       <c r="AD1604">
         <v>1.5985884613547802E-2</v>
       </c>
-      <c r="AE1604">
-        <v>0</v>
-      </c>
     </row>
     <row r="1605" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1605" t="s">
@@ -28369,9 +28360,6 @@
       <c r="AD1605">
         <v>1.92757651152313E-2</v>
       </c>
-      <c r="AE1605">
-        <v>0</v>
-      </c>
     </row>
     <row r="1606" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1606" t="s">
@@ -28657,9 +28645,6 @@
       <c r="AD1620">
         <v>4.5916241065800202E-2</v>
       </c>
-      <c r="AE1620">
-        <v>0</v>
-      </c>
     </row>
     <row r="1621" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1621" t="s">
@@ -28677,9 +28662,6 @@
       <c r="AD1621">
         <v>5.5034849406714499E-2</v>
       </c>
-      <c r="AE1621">
-        <v>0</v>
-      </c>
     </row>
     <row r="1622" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1622" t="s">
@@ -28697,9 +28679,6 @@
       <c r="AD1622">
         <v>4.4639803826593202E-2</v>
       </c>
-      <c r="AE1622">
-        <v>0</v>
-      </c>
     </row>
     <row r="1623" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1623" t="s">
@@ -28717,9 +28696,6 @@
       <c r="AD1623">
         <v>2.14681558069615E-2</v>
       </c>
-      <c r="AE1623">
-        <v>0</v>
-      </c>
     </row>
     <row r="1624" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1624" t="s">
@@ -28928,9 +28904,6 @@
       <c r="C1634" s="13">
         <v>45315</v>
       </c>
-      <c r="AB1634">
-        <v>0</v>
-      </c>
       <c r="AC1634">
         <v>0.27709265338753802</v>
       </c>
@@ -28948,9 +28921,6 @@
       <c r="C1635" s="13">
         <v>45320</v>
       </c>
-      <c r="AB1635">
-        <v>0</v>
-      </c>
       <c r="AC1635">
         <v>0.26906447997925798</v>
       </c>
@@ -28985,9 +28955,6 @@
       <c r="AD1637">
         <v>7.4466550655950106E-2</v>
       </c>
-      <c r="AE1637">
-        <v>0</v>
-      </c>
     </row>
     <row r="1638" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1638" t="s">
@@ -29005,9 +28972,6 @@
       <c r="AD1638">
         <v>7.2225369265157005E-2</v>
       </c>
-      <c r="AE1638">
-        <v>0</v>
-      </c>
     </row>
     <row r="1639" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1639" t="s">
@@ -29025,9 +28989,6 @@
       <c r="AD1639">
         <v>3.4564278639710101E-2</v>
       </c>
-      <c r="AE1639">
-        <v>0</v>
-      </c>
     </row>
     <row r="1640" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1640" t="s">
@@ -29045,9 +29006,6 @@
       <c r="AD1640">
         <v>5.3706609556821501E-2</v>
       </c>
-      <c r="AE1640">
-        <v>0</v>
-      </c>
     </row>
     <row r="1641" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1641" t="s">
@@ -29293,9 +29251,6 @@
       <c r="AD1653">
         <v>4.3634759098718501E-2</v>
       </c>
-      <c r="AE1653">
-        <v>0</v>
-      </c>
     </row>
     <row r="1654" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1654" t="s">
@@ -29313,9 +29268,6 @@
       <c r="AD1654">
         <v>7.1747311286574397E-2</v>
       </c>
-      <c r="AE1654">
-        <v>0</v>
-      </c>
     </row>
     <row r="1655" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1655" t="s">
@@ -29333,9 +29285,6 @@
       <c r="AD1655">
         <v>2.56153539298794E-2</v>
       </c>
-      <c r="AE1655">
-        <v>0</v>
-      </c>
     </row>
     <row r="1656" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1656" t="s">
@@ -29641,9 +29590,6 @@
       <c r="AD1671">
         <v>4.0031796379253498E-2</v>
       </c>
-      <c r="AE1671">
-        <v>0</v>
-      </c>
     </row>
     <row r="1672" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1672" t="s">
@@ -29661,9 +29607,6 @@
       <c r="AD1672">
         <v>8.3866011477401695E-3</v>
       </c>
-      <c r="AE1672">
-        <v>0</v>
-      </c>
     </row>
     <row r="1673" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1673" t="s">
@@ -29681,9 +29624,6 @@
       <c r="AD1673">
         <v>1.44484274248774E-2</v>
       </c>
-      <c r="AE1673">
-        <v>0</v>
-      </c>
     </row>
     <row r="1674" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1674" t="s">
@@ -29989,9 +29929,6 @@
       <c r="AD1689">
         <v>7.8084206193875697E-2</v>
       </c>
-      <c r="AE1689">
-        <v>0</v>
-      </c>
     </row>
     <row r="1690" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1690" t="s">
@@ -30009,9 +29946,6 @@
       <c r="AD1690">
         <v>5.7030899182536197E-2</v>
       </c>
-      <c r="AE1690">
-        <v>0</v>
-      </c>
     </row>
     <row r="1691" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1691" t="s">
@@ -30029,9 +29963,6 @@
       <c r="AD1691">
         <v>4.4897300896164102E-2</v>
       </c>
-      <c r="AE1691">
-        <v>0</v>
-      </c>
     </row>
     <row r="1692" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1692" t="s">
@@ -30049,9 +29980,6 @@
       <c r="AD1692">
         <v>2.0151238291717201E-2</v>
       </c>
-      <c r="AE1692">
-        <v>0</v>
-      </c>
     </row>
     <row r="1693" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1693" t="s">
@@ -30317,9 +30245,6 @@
       <c r="AD1706">
         <v>9.8327416133425397E-2</v>
       </c>
-      <c r="AE1706">
-        <v>0</v>
-      </c>
     </row>
     <row r="1707" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1707" t="s">
@@ -30337,9 +30262,6 @@
       <c r="AD1707">
         <v>0.105400699420283</v>
       </c>
-      <c r="AE1707">
-        <v>0</v>
-      </c>
     </row>
     <row r="1708" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1708" t="s">
@@ -30357,9 +30279,6 @@
       <c r="AD1708">
         <v>0.119316718322947</v>
       </c>
-      <c r="AE1708">
-        <v>0</v>
-      </c>
     </row>
     <row r="1709" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1709" t="s">
@@ -30377,9 +30296,6 @@
       <c r="AD1709">
         <v>7.99135191432815E-2</v>
       </c>
-      <c r="AE1709">
-        <v>0</v>
-      </c>
     </row>
     <row r="1710" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1710" t="s">
@@ -30397,9 +30313,6 @@
       <c r="AD1710">
         <v>7.4339782979803898E-2</v>
       </c>
-      <c r="AE1710">
-        <v>0</v>
-      </c>
     </row>
     <row r="1711" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1711" t="s">
@@ -30417,9 +30330,6 @@
       <c r="AD1711">
         <v>9.3595170784776402E-2</v>
       </c>
-      <c r="AE1711">
-        <v>0</v>
-      </c>
     </row>
     <row r="1712" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1712" t="s">
@@ -30668,9 +30578,6 @@
       <c r="C1724" s="13">
         <v>45320</v>
       </c>
-      <c r="AB1724">
-        <v>0</v>
-      </c>
       <c r="AC1724">
         <v>0.30163006487210198</v>
       </c>
@@ -30705,9 +30612,6 @@
       <c r="AD1726">
         <v>0.11121850694208101</v>
       </c>
-      <c r="AE1726">
-        <v>0</v>
-      </c>
     </row>
     <row r="1727" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1727" t="s">
@@ -30725,9 +30629,6 @@
       <c r="AD1727">
         <v>9.7978380353001507E-2</v>
       </c>
-      <c r="AE1727">
-        <v>0</v>
-      </c>
     </row>
     <row r="1728" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1728" t="s">
@@ -30745,9 +30646,6 @@
       <c r="AD1728">
         <v>0.14329302475153699</v>
       </c>
-      <c r="AE1728">
-        <v>0</v>
-      </c>
     </row>
     <row r="1729" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1729" t="s">
@@ -30765,9 +30663,6 @@
       <c r="AD1729">
         <v>0.102533188412265</v>
       </c>
-      <c r="AE1729">
-        <v>0</v>
-      </c>
     </row>
     <row r="1730" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1730" t="s">
@@ -30785,9 +30680,6 @@
       <c r="AD1730">
         <v>6.7497963385086401E-2</v>
       </c>
-      <c r="AE1730">
-        <v>0</v>
-      </c>
     </row>
     <row r="1731" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1731" t="s">
@@ -30805,9 +30697,6 @@
       <c r="AD1731">
         <v>6.75448274301131E-2</v>
       </c>
-      <c r="AE1731">
-        <v>0</v>
-      </c>
     </row>
     <row r="1732" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1732" t="s">
@@ -31036,9 +30925,6 @@
       <c r="C1743" s="13">
         <v>45320</v>
       </c>
-      <c r="AB1743">
-        <v>0</v>
-      </c>
       <c r="AC1743">
         <v>0.28502344773739402</v>
       </c>
@@ -31073,9 +30959,6 @@
       <c r="AD1745">
         <v>6.9369308539707006E-2</v>
       </c>
-      <c r="AE1745">
-        <v>0</v>
-      </c>
     </row>
     <row r="1746" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1746" t="s">
@@ -31093,9 +30976,6 @@
       <c r="AD1746">
         <v>8.5847132812856095E-2</v>
       </c>
-      <c r="AE1746">
-        <v>0</v>
-      </c>
     </row>
     <row r="1747" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1747" t="s">
@@ -31113,9 +30993,6 @@
       <c r="AD1747">
         <v>0.121142217868263</v>
       </c>
-      <c r="AE1747">
-        <v>0</v>
-      </c>
     </row>
     <row r="1748" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1748" t="s">
@@ -31133,9 +31010,6 @@
       <c r="AD1748">
         <v>7.5612332273889596E-2</v>
       </c>
-      <c r="AE1748">
-        <v>0</v>
-      </c>
     </row>
     <row r="1749" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1749" t="s">
@@ -31444,9 +31318,6 @@
       <c r="C1764" s="13">
         <v>45320</v>
       </c>
-      <c r="AB1764">
-        <v>0</v>
-      </c>
       <c r="AC1764">
         <v>0.27531509224421102</v>
       </c>
@@ -31481,9 +31352,6 @@
       <c r="AD1766">
         <v>0.10243719578329601</v>
       </c>
-      <c r="AE1766">
-        <v>0</v>
-      </c>
     </row>
     <row r="1767" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1767" t="s">
@@ -31501,9 +31369,6 @@
       <c r="AD1767">
         <v>6.6467466639569497E-2</v>
       </c>
-      <c r="AE1767">
-        <v>0</v>
-      </c>
     </row>
     <row r="1768" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1768" t="s">
@@ -31521,9 +31386,6 @@
       <c r="AD1768">
         <v>0.11157077184045</v>
       </c>
-      <c r="AE1768">
-        <v>0</v>
-      </c>
     </row>
     <row r="1769" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1769" t="s">
@@ -31541,9 +31403,6 @@
       <c r="AD1769">
         <v>6.6447639195519895E-2</v>
       </c>
-      <c r="AE1769">
-        <v>0</v>
-      </c>
     </row>
     <row r="1770" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1770" t="s">
@@ -31561,9 +31420,6 @@
       <c r="AD1770">
         <v>6.1071361016200802E-2</v>
       </c>
-      <c r="AE1770">
-        <v>0</v>
-      </c>
     </row>
     <row r="1771" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1771" t="s">
@@ -31581,9 +31437,6 @@
       <c r="AD1771">
         <v>0.10131482092864499</v>
       </c>
-      <c r="AE1771">
-        <v>0</v>
-      </c>
     </row>
     <row r="1772" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1772" t="s">
@@ -31866,12 +31719,6 @@
       <c r="AC1786">
         <v>0.101246735517183</v>
       </c>
-      <c r="AD1786">
-        <v>0</v>
-      </c>
-      <c r="AE1786">
-        <v>0</v>
-      </c>
     </row>
     <row r="1787" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1787" t="s">
@@ -31889,9 +31736,6 @@
       <c r="AD1787">
         <v>0.10937035914760899</v>
       </c>
-      <c r="AE1787">
-        <v>0</v>
-      </c>
     </row>
     <row r="1788" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1788" t="s">
@@ -31909,9 +31753,6 @@
       <c r="AD1788">
         <v>0.16055545238011901</v>
       </c>
-      <c r="AE1788">
-        <v>0</v>
-      </c>
     </row>
     <row r="1789" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1789" t="s">
@@ -31929,9 +31770,6 @@
       <c r="AD1789">
         <v>9.1902958782724295E-2</v>
       </c>
-      <c r="AE1789">
-        <v>0</v>
-      </c>
     </row>
     <row r="1790" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1790" t="s">
@@ -31949,9 +31787,6 @@
       <c r="AD1790">
         <v>6.7273257438532602E-2</v>
       </c>
-      <c r="AE1790">
-        <v>0</v>
-      </c>
     </row>
     <row r="1791" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1791" t="s">
@@ -32160,9 +31995,6 @@
       <c r="C1801" s="13">
         <v>45301</v>
       </c>
-      <c r="AB1801">
-        <v>0</v>
-      </c>
       <c r="AC1801">
         <v>0.28164397377710498</v>
       </c>
@@ -32180,9 +32012,6 @@
       <c r="C1802" s="13">
         <v>45308</v>
       </c>
-      <c r="AB1802">
-        <v>0</v>
-      </c>
       <c r="AC1802">
         <v>0.29048349961627001</v>
       </c>
@@ -32200,9 +32029,6 @@
       <c r="C1803" s="13">
         <v>45320</v>
       </c>
-      <c r="AB1803">
-        <v>0</v>
-      </c>
       <c r="AC1803">
         <v>0.30037213987019601</v>
       </c>
@@ -32234,12 +32060,6 @@
       <c r="AC1805">
         <v>0.12017733820737</v>
       </c>
-      <c r="AD1805">
-        <v>0</v>
-      </c>
-      <c r="AE1805">
-        <v>0</v>
-      </c>
     </row>
     <row r="1806" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1806" t="s">
@@ -32257,9 +32077,6 @@
       <c r="AD1806">
         <v>0.113809322404302</v>
       </c>
-      <c r="AE1806">
-        <v>0</v>
-      </c>
     </row>
     <row r="1807" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1807" t="s">
@@ -32277,9 +32094,6 @@
       <c r="AD1807">
         <v>0.17643959579610399</v>
       </c>
-      <c r="AE1807">
-        <v>0</v>
-      </c>
     </row>
     <row r="1808" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1808" t="s">
@@ -32297,9 +32111,6 @@
       <c r="AD1808">
         <v>0.17242646335397999</v>
       </c>
-      <c r="AE1808">
-        <v>0</v>
-      </c>
     </row>
     <row r="1809" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1809" t="s">
@@ -32317,9 +32128,6 @@
       <c r="AD1809">
         <v>9.7228699664401896E-2</v>
       </c>
-      <c r="AE1809">
-        <v>0</v>
-      </c>
     </row>
     <row r="1810" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1810" t="s">
@@ -32568,9 +32376,6 @@
       <c r="C1822" s="13">
         <v>45320</v>
       </c>
-      <c r="AB1822">
-        <v>0</v>
-      </c>
       <c r="AC1822">
         <v>0.278433715874017</v>
       </c>
@@ -32602,12 +32407,6 @@
       <c r="AC1824">
         <v>0.18851054898415601</v>
       </c>
-      <c r="AD1824">
-        <v>0</v>
-      </c>
-      <c r="AE1824">
-        <v>0</v>
-      </c>
     </row>
     <row r="1825" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1825" t="s">
@@ -32625,9 +32424,6 @@
       <c r="AD1825">
         <v>8.3624008209966905E-2</v>
       </c>
-      <c r="AE1825">
-        <v>0</v>
-      </c>
     </row>
     <row r="1826" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1826" t="s">
@@ -32645,9 +32441,6 @@
       <c r="AD1826">
         <v>0.19109513610783499</v>
       </c>
-      <c r="AE1826">
-        <v>0</v>
-      </c>
     </row>
     <row r="1827" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1827" t="s">
@@ -32665,9 +32458,6 @@
       <c r="AD1827">
         <v>0.15298276275994099</v>
       </c>
-      <c r="AE1827">
-        <v>0</v>
-      </c>
     </row>
     <row r="1828" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1828" t="s">
@@ -32685,9 +32475,6 @@
       <c r="AD1828">
         <v>0.155073747759464</v>
       </c>
-      <c r="AE1828">
-        <v>0</v>
-      </c>
     </row>
     <row r="1829" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1829" t="s">
@@ -32956,9 +32743,6 @@
       <c r="C1842" s="13">
         <v>45301</v>
       </c>
-      <c r="AB1842">
-        <v>0</v>
-      </c>
       <c r="AC1842">
         <v>0.316446911866759</v>
       </c>
@@ -33030,12 +32814,6 @@
       <c r="AC1846">
         <v>0.136740163392192</v>
       </c>
-      <c r="AD1846">
-        <v>0</v>
-      </c>
-      <c r="AE1846">
-        <v>0</v>
-      </c>
     </row>
     <row r="1847" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1847" t="s">
@@ -33053,9 +32831,6 @@
       <c r="AD1847">
         <v>9.2938737868781401E-2</v>
       </c>
-      <c r="AE1847">
-        <v>0</v>
-      </c>
     </row>
     <row r="1848" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1848" t="s">
@@ -33081,9 +32856,6 @@
       <c r="AD1849">
         <v>9.3076108109613795E-2</v>
       </c>
-      <c r="AE1849">
-        <v>0</v>
-      </c>
     </row>
     <row r="1850" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1850" t="s">
@@ -33101,9 +32873,6 @@
       <c r="AD1850">
         <v>0.126448419996497</v>
       </c>
-      <c r="AE1850">
-        <v>0</v>
-      </c>
     </row>
     <row r="1851" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1851" t="s">
@@ -33121,9 +32890,6 @@
       <c r="AD1851">
         <v>8.7947695655509098E-2</v>
       </c>
-      <c r="AE1851">
-        <v>0</v>
-      </c>
     </row>
     <row r="1852" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1852" t="s">
@@ -33392,9 +33158,6 @@
       <c r="C1865" s="13">
         <v>45308</v>
       </c>
-      <c r="AB1865">
-        <v>0</v>
-      </c>
       <c r="AC1865">
         <v>0.31537951607557102</v>
       </c>
@@ -33411,9 +33174,6 @@
       </c>
       <c r="C1866" s="13">
         <v>45320</v>
-      </c>
-      <c r="AB1866">
-        <v>0</v>
       </c>
       <c r="AC1866">
         <v>0.279581780986498</v>
@@ -33434,7 +33194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42A1DEA-1F93-4213-A904-E7945B1F6B10}">
   <dimension ref="A1:F142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>

--- a/Tests/Validation/Wheat/data/Lincoln2023.xlsx
+++ b/Tests/Validation/Wheat/data/Lincoln2023.xlsx
@@ -38,263 +38,263 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3816" uniqueCount="85">
-  <si>
-    <t>SimulationName</t>
-  </si>
-  <si>
-    <t>Clock.Today</t>
-  </si>
-  <si>
-    <t>Wheat.AboveGround.Wt</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.Live.Wt</t>
-  </si>
-  <si>
-    <t>Wheat.Stem.Wt</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.Dead.Wt</t>
-  </si>
-  <si>
-    <t>Wheat.Ear.Wt</t>
-  </si>
-  <si>
-    <t>Wheat.Spike.HeadNumber</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.StemPopulation</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.FWt15</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Wt</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Number</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Size</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.SpecificAreaCanopy</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.LAI</t>
-  </si>
-  <si>
-    <t>Wheat.Phenology.HaunStage</t>
-  </si>
-  <si>
-    <t>Wheat.Phenology.Zadok.Stage</t>
-  </si>
-  <si>
-    <t>Wheat.Phenology.CurrentStageName</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.CoverTotal</t>
-  </si>
-  <si>
-    <t>NDVIModel.Script.NDVI</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.StemNumberPerPlant</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Protein</t>
-  </si>
-  <si>
-    <t>Lincoln2023SD27MarCVGraham</t>
-  </si>
-  <si>
-    <t>FlafLeaf</t>
-  </si>
-  <si>
-    <t>Flowering</t>
-  </si>
-  <si>
-    <t>GrainFilling</t>
-  </si>
-  <si>
-    <t>HarvestRipe</t>
-  </si>
-  <si>
-    <t>Lincoln2023SD19AprCVGraham</t>
-  </si>
-  <si>
-    <t>FlagLeaf</t>
-  </si>
-  <si>
-    <t>StartGrainFill</t>
-  </si>
-  <si>
-    <t>Lincoln2023SD18MayCVGraham</t>
-  </si>
-  <si>
-    <t>TerminalSpikelet</t>
-  </si>
-  <si>
-    <t>2ndNodeOnMainStem</t>
-  </si>
-  <si>
-    <t>EndGrainFill</t>
-  </si>
-  <si>
-    <t>Lincoln2023SD27MarCVKerrin</t>
-  </si>
-  <si>
-    <t>Lincoln2023SD19AprCVKerrin</t>
-  </si>
-  <si>
-    <t>Lincoln2023SD18MayCVKerrin</t>
-  </si>
-  <si>
-    <t>Lincoln2023SD27MarCVSorrial</t>
-  </si>
-  <si>
-    <t>Lincoln2023SD19AprCVSorrial</t>
-  </si>
-  <si>
-    <t>Lincoln2023SD18MayCVSorrial</t>
-  </si>
-  <si>
-    <t>Lincoln2023SD27MarCVVoltron</t>
-  </si>
-  <si>
-    <t>Lincoln2023SD19AprCVVoltron</t>
-  </si>
-  <si>
-    <t>Lincoln2023SD18MayCVVoltron</t>
-  </si>
-  <si>
-    <t>Lincoln2023SD18MayCVCesario</t>
-  </si>
-  <si>
-    <t>Lincoln2023SD18MayCVStockade</t>
-  </si>
-  <si>
-    <t>Emergence</t>
-  </si>
-  <si>
-    <t>EndOfGrainFilling</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>missing plots beyond remediation</t>
-  </si>
-  <si>
-    <t>Regarding final harvests, the harvest dates were 29/01/2024 - 1/02/2024 (1 block each day).</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>All Weight</t>
-  </si>
-  <si>
-    <t>g/m2</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>No./m2</t>
-  </si>
-  <si>
-    <t>No. of grains/m2</t>
-  </si>
-  <si>
-    <t>Wheat.Ear.Number</t>
-  </si>
-  <si>
-    <t>No. of heads/m2</t>
-  </si>
-  <si>
-    <t>Wheat.Stem.Number</t>
-  </si>
-  <si>
-    <t>No. of stems/m2</t>
-  </si>
-  <si>
-    <t>Grainwt is @15%moisture</t>
-  </si>
-  <si>
-    <t>Specific leaf area</t>
-  </si>
-  <si>
-    <t>m2/g</t>
-  </si>
-  <si>
-    <t>Wheat.GroundCover</t>
-  </si>
-  <si>
-    <t>GreenSeeker values</t>
-  </si>
-  <si>
-    <t>Wheat.SpecificAreaExpanding</t>
-  </si>
-  <si>
-    <t>Wleat.Leaf.Wt</t>
-  </si>
-  <si>
-    <t>Wheat.Phenology.Stage</t>
-  </si>
-  <si>
-    <t>Graham</t>
-  </si>
-  <si>
-    <t>Kerrin</t>
-  </si>
-  <si>
-    <t>Sorrial</t>
-  </si>
-  <si>
-    <t>Voltron</t>
-  </si>
-  <si>
-    <t>Stockade</t>
-  </si>
-  <si>
-    <t>Cesario</t>
-  </si>
-  <si>
-    <t>Wheat.SowingData.Cultivar</t>
-  </si>
-  <si>
-    <t>Wheat.Spike.Wt</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.LiveWtProportion</t>
-  </si>
-  <si>
-    <t>Wheat.Stem.WtProportion</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.DeadWtProportion</t>
-  </si>
-  <si>
-    <t>Wheat.Ear.WtProportion</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.Live.Wt/stem (g)</t>
-  </si>
-  <si>
-    <t>Wheat.Stem.Wt/stem (g)</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.Dead.Wt/stem (g)</t>
-  </si>
-  <si>
-    <t>Wheat.Ear.Wt/stem (g)</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3816" uniqueCount="85">
+  <x:si>
+    <x:t>SimulationName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clock.Today</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.AboveGround.Wt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.Live.Wt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Stem.Wt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.Dead.Wt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Ear.Wt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Spike.HeadNumber</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.StemPopulation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.FWt15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Wt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Size</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.SpecificAreaCanopy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.LAI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Phenology.HaunStage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Phenology.Zadok.Stage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Phenology.CurrentStageName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.CoverTotal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Spectral.NDVI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.StemNumberPerPlant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Protein</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lincoln2023SD27MarCVGraham</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FlafLeaf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flowering</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GrainFilling</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HarvestRipe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lincoln2023SD19AprCVGraham</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FlagLeaf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>StartGrainFill</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lincoln2023SD18MayCVGraham</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TerminalSpikelet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2ndNodeOnMainStem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EndGrainFill</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lincoln2023SD27MarCVKerrin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lincoln2023SD19AprCVKerrin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lincoln2023SD18MayCVKerrin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lincoln2023SD27MarCVSorrial</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lincoln2023SD19AprCVSorrial</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lincoln2023SD18MayCVSorrial</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lincoln2023SD27MarCVVoltron</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lincoln2023SD19AprCVVoltron</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lincoln2023SD18MayCVVoltron</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lincoln2023SD18MayCVCesario</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lincoln2023SD18MayCVStockade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Emergence</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EndOfGrainFilling</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>missing plots beyond remediation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Regarding final harvests, the harvest dates were 29/01/2024 - 1/02/2024 (1 block each day).</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Unit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>All Weight</x:t>
+  </x:si>
+  <x:si>
+    <x:t>g/m2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>No./m2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>No. of grains/m2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Ear.Number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>No. of heads/m2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Stem.Number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>No. of stems/m2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grainwt is @15%moisture</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Specific leaf area</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m2/g</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.GroundCover</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GreenSeeker values</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.SpecificAreaExpanding</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wleat.Leaf.Wt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Phenology.Stage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Graham</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kerrin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sorrial</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voltron</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stockade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cesario</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.SowingData.Cultivar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Spike.Wt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.LiveWtProportion</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Stem.WtProportion</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.DeadWtProportion</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Ear.WtProportion</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.Live.Wt/stem (g)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Stem.Wt/stem (g)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.Dead.Wt/stem (g)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Ear.Wt/stem (g)</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Tests/Validation/Wheat/data/Lincoln2023.xlsx
+++ b/Tests/Validation/Wheat/data/Lincoln2023.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepos\ApsimX\Tests\Validation\Wheat\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A13656F-24E8-43EF-8760-B09EDB71D5DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC41435-8CD9-4819-B731-8D442CD9AEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ObservedStageDates" sheetId="4" r:id="rId1"/>
-    <sheet name="Observed" sheetId="1" r:id="rId2"/>
+    <sheet name="Observed" sheetId="1" r:id="rId1"/>
+    <sheet name="ObservedStageDates" sheetId="4" r:id="rId2"/>
     <sheet name="Random stem biomass partit" sheetId="3" r:id="rId3"/>
     <sheet name="Info" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Observed!$A$1:$AE$1866</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Observed!$A$1:$AE$1866</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -62193,7 +62193,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6D2F7128-39AB-41E5-98C4-FD70A1CCD9CA}" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6D2F7128-39AB-41E5-98C4-FD70A1CCD9CA}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="31">
     <pivotField axis="axisRow" showAll="0">
@@ -62626,798 +62626,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D3A1DD-6556-4C13-9BED-B6412B226627}">
-  <dimension ref="A3:G37"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:F34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>8</v>
-      </c>
-      <c r="F4">
-        <v>9</v>
-      </c>
-      <c r="G4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5">
-        <v>45080</v>
-      </c>
-      <c r="C5">
-        <v>45183</v>
-      </c>
-      <c r="D5">
-        <v>45221</v>
-      </c>
-      <c r="E5">
-        <v>45243</v>
-      </c>
-      <c r="F5">
-        <v>45253</v>
-      </c>
-      <c r="G5">
-        <v>45301</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6">
-        <v>45079</v>
-      </c>
-      <c r="C6">
-        <v>45197</v>
-      </c>
-      <c r="D6">
-        <v>45237</v>
-      </c>
-      <c r="E6">
-        <v>45258</v>
-      </c>
-      <c r="F6">
-        <v>45266</v>
-      </c>
-      <c r="G6">
-        <v>45308</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7">
-        <v>45086</v>
-      </c>
-      <c r="C7">
-        <v>45189</v>
-      </c>
-      <c r="D7">
-        <v>45239</v>
-      </c>
-      <c r="E7">
-        <v>45260</v>
-      </c>
-      <c r="F7">
-        <v>45266</v>
-      </c>
-      <c r="G7">
-        <v>45301</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8">
-        <v>45084</v>
-      </c>
-      <c r="C8">
-        <v>45189</v>
-      </c>
-      <c r="D8">
-        <v>45228</v>
-      </c>
-      <c r="E8">
-        <v>45249</v>
-      </c>
-      <c r="F8">
-        <v>45259</v>
-      </c>
-      <c r="G8">
-        <v>45295</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9">
-        <v>45080</v>
-      </c>
-      <c r="C9">
-        <v>45183</v>
-      </c>
-      <c r="D9">
-        <v>45221</v>
-      </c>
-      <c r="E9">
-        <v>45242</v>
-      </c>
-      <c r="F9">
-        <v>45253</v>
-      </c>
-      <c r="G9">
-        <v>45295</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10">
-        <v>45083</v>
-      </c>
-      <c r="C10">
-        <v>45189</v>
-      </c>
-      <c r="D10">
-        <v>45237</v>
-      </c>
-      <c r="E10">
-        <v>45258</v>
-      </c>
-      <c r="F10">
-        <v>45266</v>
-      </c>
-      <c r="G10">
-        <v>45301</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11">
-        <v>45046</v>
-      </c>
-      <c r="C11">
-        <v>45174</v>
-      </c>
-      <c r="D11">
-        <v>45228</v>
-      </c>
-      <c r="E11">
-        <v>45250</v>
-      </c>
-      <c r="F11">
-        <v>45259</v>
-      </c>
-      <c r="G11">
-        <v>45295</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12">
-        <v>45048</v>
-      </c>
-      <c r="C12">
-        <v>45169</v>
-      </c>
-      <c r="D12">
-        <v>45230</v>
-      </c>
-      <c r="E12">
-        <v>45252</v>
-      </c>
-      <c r="F12">
-        <v>45259</v>
-      </c>
-      <c r="G12">
-        <v>45301</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13">
-        <v>45047</v>
-      </c>
-      <c r="C13">
-        <v>45169</v>
-      </c>
-      <c r="D13">
-        <v>45216</v>
-      </c>
-      <c r="E13">
-        <v>45238</v>
-      </c>
-      <c r="F13">
-        <v>45245</v>
-      </c>
-      <c r="G13">
-        <v>45295</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14">
-        <v>45047</v>
-      </c>
-      <c r="C14">
-        <v>45169</v>
-      </c>
-      <c r="D14">
-        <v>45228</v>
-      </c>
-      <c r="E14">
-        <v>45250</v>
-      </c>
-      <c r="F14">
-        <v>45259</v>
-      </c>
-      <c r="G14">
-        <v>45295</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15">
-        <v>45022</v>
-      </c>
-      <c r="C15">
-        <v>45152</v>
-      </c>
-      <c r="D15">
-        <v>45221</v>
-      </c>
-      <c r="E15">
-        <v>45244</v>
-      </c>
-      <c r="F15">
-        <v>45253</v>
-      </c>
-      <c r="G15">
-        <v>45295</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16">
-        <v>45024</v>
-      </c>
-      <c r="C16">
-        <v>45139</v>
-      </c>
-      <c r="D16">
-        <v>45223</v>
-      </c>
-      <c r="E16">
-        <v>45246</v>
-      </c>
-      <c r="F16">
-        <v>45253</v>
-      </c>
-      <c r="G16">
-        <v>45295</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17">
-        <v>45022</v>
-      </c>
-      <c r="C17">
-        <v>45145</v>
-      </c>
-      <c r="D17">
-        <v>45211</v>
-      </c>
-      <c r="E17">
-        <v>45233</v>
-      </c>
-      <c r="F17">
-        <v>45245</v>
-      </c>
-      <c r="G17">
-        <v>45295</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18">
-        <v>45022</v>
-      </c>
-      <c r="C18">
-        <v>45125</v>
-      </c>
-      <c r="D18">
-        <v>45217</v>
-      </c>
-      <c r="E18">
-        <v>45241</v>
-      </c>
-      <c r="F18">
-        <v>45253</v>
-      </c>
-      <c r="G18">
-        <v>45287</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="str">
-        <f>A5</f>
-        <v>Lincoln2023SD18MayCVCesario</v>
-      </c>
-      <c r="B21" s="17">
-        <f>B5</f>
-        <v>45080</v>
-      </c>
-      <c r="C21" s="17">
-        <f t="shared" ref="C21:D21" si="0">C5</f>
-        <v>45183</v>
-      </c>
-      <c r="D21" s="17">
-        <f t="shared" si="0"/>
-        <v>45221</v>
-      </c>
-      <c r="E21" s="17">
-        <f>ROUND(D21+(F21-D21)*0.8,0)</f>
-        <v>45239</v>
-      </c>
-      <c r="F21" s="17">
-        <f>E5</f>
-        <v>45243</v>
-      </c>
-      <c r="G21" s="17"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="str">
-        <f t="shared" ref="A22:D22" si="1">A6</f>
-        <v>Lincoln2023SD18MayCVGraham</v>
-      </c>
-      <c r="B22" s="17">
-        <f t="shared" si="1"/>
-        <v>45079</v>
-      </c>
-      <c r="C22" s="17">
-        <f t="shared" si="1"/>
-        <v>45197</v>
-      </c>
-      <c r="D22" s="17">
-        <f t="shared" si="1"/>
-        <v>45237</v>
-      </c>
-      <c r="E22" s="17">
-        <f t="shared" ref="E22:E34" si="2">ROUND(D22+(F22-D22)*0.8,0)</f>
-        <v>45254</v>
-      </c>
-      <c r="F22" s="17">
-        <f t="shared" ref="F22:F34" si="3">E6</f>
-        <v>45258</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="str">
-        <f t="shared" ref="A23:D23" si="4">A7</f>
-        <v>Lincoln2023SD18MayCVKerrin</v>
-      </c>
-      <c r="B23" s="17">
-        <f t="shared" si="4"/>
-        <v>45086</v>
-      </c>
-      <c r="C23" s="17">
-        <f t="shared" si="4"/>
-        <v>45189</v>
-      </c>
-      <c r="D23" s="17">
-        <f t="shared" si="4"/>
-        <v>45239</v>
-      </c>
-      <c r="E23" s="17">
-        <f t="shared" si="2"/>
-        <v>45256</v>
-      </c>
-      <c r="F23" s="17">
-        <f t="shared" si="3"/>
-        <v>45260</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="str">
-        <f t="shared" ref="A24:D24" si="5">A8</f>
-        <v>Lincoln2023SD18MayCVSorrial</v>
-      </c>
-      <c r="B24" s="17">
-        <f t="shared" si="5"/>
-        <v>45084</v>
-      </c>
-      <c r="C24" s="17">
-        <f t="shared" si="5"/>
-        <v>45189</v>
-      </c>
-      <c r="D24" s="17">
-        <f t="shared" si="5"/>
-        <v>45228</v>
-      </c>
-      <c r="E24" s="17">
-        <f t="shared" si="2"/>
-        <v>45245</v>
-      </c>
-      <c r="F24" s="17">
-        <f t="shared" si="3"/>
-        <v>45249</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="str">
-        <f t="shared" ref="A25:D25" si="6">A9</f>
-        <v>Lincoln2023SD18MayCVStockade</v>
-      </c>
-      <c r="B25" s="17">
-        <f t="shared" si="6"/>
-        <v>45080</v>
-      </c>
-      <c r="C25" s="17">
-        <f t="shared" si="6"/>
-        <v>45183</v>
-      </c>
-      <c r="D25" s="17">
-        <f t="shared" si="6"/>
-        <v>45221</v>
-      </c>
-      <c r="E25" s="17">
-        <f t="shared" si="2"/>
-        <v>45238</v>
-      </c>
-      <c r="F25" s="17">
-        <f t="shared" si="3"/>
-        <v>45242</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="str">
-        <f t="shared" ref="A26:D26" si="7">A10</f>
-        <v>Lincoln2023SD18MayCVVoltron</v>
-      </c>
-      <c r="B26" s="17">
-        <f t="shared" si="7"/>
-        <v>45083</v>
-      </c>
-      <c r="C26" s="17">
-        <f t="shared" si="7"/>
-        <v>45189</v>
-      </c>
-      <c r="D26" s="17">
-        <f t="shared" si="7"/>
-        <v>45237</v>
-      </c>
-      <c r="E26" s="17">
-        <f t="shared" si="2"/>
-        <v>45254</v>
-      </c>
-      <c r="F26" s="17">
-        <f t="shared" si="3"/>
-        <v>45258</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="str">
-        <f t="shared" ref="A27:D27" si="8">A11</f>
-        <v>Lincoln2023SD19AprCVGraham</v>
-      </c>
-      <c r="B27" s="17">
-        <f t="shared" si="8"/>
-        <v>45046</v>
-      </c>
-      <c r="C27" s="17">
-        <f t="shared" si="8"/>
-        <v>45174</v>
-      </c>
-      <c r="D27" s="17">
-        <f t="shared" si="8"/>
-        <v>45228</v>
-      </c>
-      <c r="E27" s="17">
-        <f t="shared" si="2"/>
-        <v>45246</v>
-      </c>
-      <c r="F27" s="17">
-        <f t="shared" si="3"/>
-        <v>45250</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="str">
-        <f t="shared" ref="A28:D28" si="9">A12</f>
-        <v>Lincoln2023SD19AprCVKerrin</v>
-      </c>
-      <c r="B28" s="17">
-        <f t="shared" si="9"/>
-        <v>45048</v>
-      </c>
-      <c r="C28" s="17">
-        <f t="shared" si="9"/>
-        <v>45169</v>
-      </c>
-      <c r="D28" s="17">
-        <f t="shared" si="9"/>
-        <v>45230</v>
-      </c>
-      <c r="E28" s="17">
-        <f t="shared" si="2"/>
-        <v>45248</v>
-      </c>
-      <c r="F28" s="17">
-        <f t="shared" si="3"/>
-        <v>45252</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="str">
-        <f t="shared" ref="A29:D29" si="10">A13</f>
-        <v>Lincoln2023SD19AprCVSorrial</v>
-      </c>
-      <c r="B29" s="17">
-        <f t="shared" si="10"/>
-        <v>45047</v>
-      </c>
-      <c r="C29" s="17">
-        <f t="shared" si="10"/>
-        <v>45169</v>
-      </c>
-      <c r="D29" s="17">
-        <f t="shared" si="10"/>
-        <v>45216</v>
-      </c>
-      <c r="E29" s="17">
-        <f t="shared" si="2"/>
-        <v>45234</v>
-      </c>
-      <c r="F29" s="17">
-        <f t="shared" si="3"/>
-        <v>45238</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="str">
-        <f t="shared" ref="A30:D30" si="11">A14</f>
-        <v>Lincoln2023SD19AprCVVoltron</v>
-      </c>
-      <c r="B30" s="17">
-        <f t="shared" si="11"/>
-        <v>45047</v>
-      </c>
-      <c r="C30" s="17">
-        <f t="shared" si="11"/>
-        <v>45169</v>
-      </c>
-      <c r="D30" s="17">
-        <f t="shared" si="11"/>
-        <v>45228</v>
-      </c>
-      <c r="E30" s="17">
-        <f t="shared" si="2"/>
-        <v>45246</v>
-      </c>
-      <c r="F30" s="17">
-        <f t="shared" si="3"/>
-        <v>45250</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="str">
-        <f t="shared" ref="A31:D31" si="12">A15</f>
-        <v>Lincoln2023SD27MarCVGraham</v>
-      </c>
-      <c r="B31" s="17">
-        <f t="shared" si="12"/>
-        <v>45022</v>
-      </c>
-      <c r="C31" s="17">
-        <f t="shared" si="12"/>
-        <v>45152</v>
-      </c>
-      <c r="D31" s="17">
-        <f t="shared" si="12"/>
-        <v>45221</v>
-      </c>
-      <c r="E31" s="17">
-        <f t="shared" si="2"/>
-        <v>45239</v>
-      </c>
-      <c r="F31" s="17">
-        <f t="shared" si="3"/>
-        <v>45244</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="str">
-        <f t="shared" ref="A32:D32" si="13">A16</f>
-        <v>Lincoln2023SD27MarCVKerrin</v>
-      </c>
-      <c r="B32" s="17">
-        <f t="shared" si="13"/>
-        <v>45024</v>
-      </c>
-      <c r="C32" s="17">
-        <f t="shared" si="13"/>
-        <v>45139</v>
-      </c>
-      <c r="D32" s="17">
-        <f t="shared" si="13"/>
-        <v>45223</v>
-      </c>
-      <c r="E32" s="17">
-        <f t="shared" si="2"/>
-        <v>45241</v>
-      </c>
-      <c r="F32" s="17">
-        <f t="shared" si="3"/>
-        <v>45246</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="str">
-        <f t="shared" ref="A33:D33" si="14">A17</f>
-        <v>Lincoln2023SD27MarCVSorrial</v>
-      </c>
-      <c r="B33" s="17">
-        <f t="shared" si="14"/>
-        <v>45022</v>
-      </c>
-      <c r="C33" s="17">
-        <f t="shared" si="14"/>
-        <v>45145</v>
-      </c>
-      <c r="D33" s="17">
-        <f t="shared" si="14"/>
-        <v>45211</v>
-      </c>
-      <c r="E33" s="17">
-        <f t="shared" si="2"/>
-        <v>45229</v>
-      </c>
-      <c r="F33" s="17">
-        <f t="shared" si="3"/>
-        <v>45233</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="str">
-        <f t="shared" ref="A34:D34" si="15">A18</f>
-        <v>Lincoln2023SD27MarCVVoltron</v>
-      </c>
-      <c r="B34" s="17">
-        <f t="shared" si="15"/>
-        <v>45022</v>
-      </c>
-      <c r="C34" s="17">
-        <f t="shared" si="15"/>
-        <v>45125</v>
-      </c>
-      <c r="D34" s="17">
-        <f t="shared" si="15"/>
-        <v>45217</v>
-      </c>
-      <c r="E34" s="17">
-        <f t="shared" si="2"/>
-        <v>45236</v>
-      </c>
-      <c r="F34" s="17">
-        <f t="shared" si="3"/>
-        <v>45241</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE1866"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="O7" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="U2" sqref="U2"/>
+      <selection pane="bottomRight" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -95257,6 +94473,790 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D3A1DD-6556-4C13-9BED-B6412B226627}">
+  <dimension ref="A3:G37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:F34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <v>45080</v>
+      </c>
+      <c r="C5">
+        <v>45183</v>
+      </c>
+      <c r="D5">
+        <v>45221</v>
+      </c>
+      <c r="E5">
+        <v>45243</v>
+      </c>
+      <c r="F5">
+        <v>45253</v>
+      </c>
+      <c r="G5">
+        <v>45301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>45079</v>
+      </c>
+      <c r="C6">
+        <v>45197</v>
+      </c>
+      <c r="D6">
+        <v>45237</v>
+      </c>
+      <c r="E6">
+        <v>45258</v>
+      </c>
+      <c r="F6">
+        <v>45266</v>
+      </c>
+      <c r="G6">
+        <v>45308</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>45086</v>
+      </c>
+      <c r="C7">
+        <v>45189</v>
+      </c>
+      <c r="D7">
+        <v>45239</v>
+      </c>
+      <c r="E7">
+        <v>45260</v>
+      </c>
+      <c r="F7">
+        <v>45266</v>
+      </c>
+      <c r="G7">
+        <v>45301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>45084</v>
+      </c>
+      <c r="C8">
+        <v>45189</v>
+      </c>
+      <c r="D8">
+        <v>45228</v>
+      </c>
+      <c r="E8">
+        <v>45249</v>
+      </c>
+      <c r="F8">
+        <v>45259</v>
+      </c>
+      <c r="G8">
+        <v>45295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9">
+        <v>45080</v>
+      </c>
+      <c r="C9">
+        <v>45183</v>
+      </c>
+      <c r="D9">
+        <v>45221</v>
+      </c>
+      <c r="E9">
+        <v>45242</v>
+      </c>
+      <c r="F9">
+        <v>45253</v>
+      </c>
+      <c r="G9">
+        <v>45295</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10">
+        <v>45083</v>
+      </c>
+      <c r="C10">
+        <v>45189</v>
+      </c>
+      <c r="D10">
+        <v>45237</v>
+      </c>
+      <c r="E10">
+        <v>45258</v>
+      </c>
+      <c r="F10">
+        <v>45266</v>
+      </c>
+      <c r="G10">
+        <v>45301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>45046</v>
+      </c>
+      <c r="C11">
+        <v>45174</v>
+      </c>
+      <c r="D11">
+        <v>45228</v>
+      </c>
+      <c r="E11">
+        <v>45250</v>
+      </c>
+      <c r="F11">
+        <v>45259</v>
+      </c>
+      <c r="G11">
+        <v>45295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12">
+        <v>45048</v>
+      </c>
+      <c r="C12">
+        <v>45169</v>
+      </c>
+      <c r="D12">
+        <v>45230</v>
+      </c>
+      <c r="E12">
+        <v>45252</v>
+      </c>
+      <c r="F12">
+        <v>45259</v>
+      </c>
+      <c r="G12">
+        <v>45301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <v>45047</v>
+      </c>
+      <c r="C13">
+        <v>45169</v>
+      </c>
+      <c r="D13">
+        <v>45216</v>
+      </c>
+      <c r="E13">
+        <v>45238</v>
+      </c>
+      <c r="F13">
+        <v>45245</v>
+      </c>
+      <c r="G13">
+        <v>45295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14">
+        <v>45047</v>
+      </c>
+      <c r="C14">
+        <v>45169</v>
+      </c>
+      <c r="D14">
+        <v>45228</v>
+      </c>
+      <c r="E14">
+        <v>45250</v>
+      </c>
+      <c r="F14">
+        <v>45259</v>
+      </c>
+      <c r="G14">
+        <v>45295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>45022</v>
+      </c>
+      <c r="C15">
+        <v>45152</v>
+      </c>
+      <c r="D15">
+        <v>45221</v>
+      </c>
+      <c r="E15">
+        <v>45244</v>
+      </c>
+      <c r="F15">
+        <v>45253</v>
+      </c>
+      <c r="G15">
+        <v>45295</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16">
+        <v>45024</v>
+      </c>
+      <c r="C16">
+        <v>45139</v>
+      </c>
+      <c r="D16">
+        <v>45223</v>
+      </c>
+      <c r="E16">
+        <v>45246</v>
+      </c>
+      <c r="F16">
+        <v>45253</v>
+      </c>
+      <c r="G16">
+        <v>45295</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17">
+        <v>45022</v>
+      </c>
+      <c r="C17">
+        <v>45145</v>
+      </c>
+      <c r="D17">
+        <v>45211</v>
+      </c>
+      <c r="E17">
+        <v>45233</v>
+      </c>
+      <c r="F17">
+        <v>45245</v>
+      </c>
+      <c r="G17">
+        <v>45295</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18">
+        <v>45022</v>
+      </c>
+      <c r="C18">
+        <v>45125</v>
+      </c>
+      <c r="D18">
+        <v>45217</v>
+      </c>
+      <c r="E18">
+        <v>45241</v>
+      </c>
+      <c r="F18">
+        <v>45253</v>
+      </c>
+      <c r="G18">
+        <v>45287</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f>A5</f>
+        <v>Lincoln2023SD18MayCVCesario</v>
+      </c>
+      <c r="B21" s="17">
+        <f>B5</f>
+        <v>45080</v>
+      </c>
+      <c r="C21" s="17">
+        <f t="shared" ref="C21:D21" si="0">C5</f>
+        <v>45183</v>
+      </c>
+      <c r="D21" s="17">
+        <f t="shared" si="0"/>
+        <v>45221</v>
+      </c>
+      <c r="E21" s="17">
+        <f>ROUND(D21+(F21-D21)*0.8,0)</f>
+        <v>45239</v>
+      </c>
+      <c r="F21" s="17">
+        <f>E5</f>
+        <v>45243</v>
+      </c>
+      <c r="G21" s="17"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f t="shared" ref="A22:D22" si="1">A6</f>
+        <v>Lincoln2023SD18MayCVGraham</v>
+      </c>
+      <c r="B22" s="17">
+        <f t="shared" si="1"/>
+        <v>45079</v>
+      </c>
+      <c r="C22" s="17">
+        <f t="shared" si="1"/>
+        <v>45197</v>
+      </c>
+      <c r="D22" s="17">
+        <f t="shared" si="1"/>
+        <v>45237</v>
+      </c>
+      <c r="E22" s="17">
+        <f t="shared" ref="E22:E34" si="2">ROUND(D22+(F22-D22)*0.8,0)</f>
+        <v>45254</v>
+      </c>
+      <c r="F22" s="17">
+        <f t="shared" ref="F22:F34" si="3">E6</f>
+        <v>45258</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f t="shared" ref="A23:D23" si="4">A7</f>
+        <v>Lincoln2023SD18MayCVKerrin</v>
+      </c>
+      <c r="B23" s="17">
+        <f t="shared" si="4"/>
+        <v>45086</v>
+      </c>
+      <c r="C23" s="17">
+        <f t="shared" si="4"/>
+        <v>45189</v>
+      </c>
+      <c r="D23" s="17">
+        <f t="shared" si="4"/>
+        <v>45239</v>
+      </c>
+      <c r="E23" s="17">
+        <f t="shared" si="2"/>
+        <v>45256</v>
+      </c>
+      <c r="F23" s="17">
+        <f t="shared" si="3"/>
+        <v>45260</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f t="shared" ref="A24:D24" si="5">A8</f>
+        <v>Lincoln2023SD18MayCVSorrial</v>
+      </c>
+      <c r="B24" s="17">
+        <f t="shared" si="5"/>
+        <v>45084</v>
+      </c>
+      <c r="C24" s="17">
+        <f t="shared" si="5"/>
+        <v>45189</v>
+      </c>
+      <c r="D24" s="17">
+        <f t="shared" si="5"/>
+        <v>45228</v>
+      </c>
+      <c r="E24" s="17">
+        <f t="shared" si="2"/>
+        <v>45245</v>
+      </c>
+      <c r="F24" s="17">
+        <f t="shared" si="3"/>
+        <v>45249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f t="shared" ref="A25:D25" si="6">A9</f>
+        <v>Lincoln2023SD18MayCVStockade</v>
+      </c>
+      <c r="B25" s="17">
+        <f t="shared" si="6"/>
+        <v>45080</v>
+      </c>
+      <c r="C25" s="17">
+        <f t="shared" si="6"/>
+        <v>45183</v>
+      </c>
+      <c r="D25" s="17">
+        <f t="shared" si="6"/>
+        <v>45221</v>
+      </c>
+      <c r="E25" s="17">
+        <f t="shared" si="2"/>
+        <v>45238</v>
+      </c>
+      <c r="F25" s="17">
+        <f t="shared" si="3"/>
+        <v>45242</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f t="shared" ref="A26:D26" si="7">A10</f>
+        <v>Lincoln2023SD18MayCVVoltron</v>
+      </c>
+      <c r="B26" s="17">
+        <f t="shared" si="7"/>
+        <v>45083</v>
+      </c>
+      <c r="C26" s="17">
+        <f t="shared" si="7"/>
+        <v>45189</v>
+      </c>
+      <c r="D26" s="17">
+        <f t="shared" si="7"/>
+        <v>45237</v>
+      </c>
+      <c r="E26" s="17">
+        <f t="shared" si="2"/>
+        <v>45254</v>
+      </c>
+      <c r="F26" s="17">
+        <f t="shared" si="3"/>
+        <v>45258</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f t="shared" ref="A27:D27" si="8">A11</f>
+        <v>Lincoln2023SD19AprCVGraham</v>
+      </c>
+      <c r="B27" s="17">
+        <f t="shared" si="8"/>
+        <v>45046</v>
+      </c>
+      <c r="C27" s="17">
+        <f t="shared" si="8"/>
+        <v>45174</v>
+      </c>
+      <c r="D27" s="17">
+        <f t="shared" si="8"/>
+        <v>45228</v>
+      </c>
+      <c r="E27" s="17">
+        <f t="shared" si="2"/>
+        <v>45246</v>
+      </c>
+      <c r="F27" s="17">
+        <f t="shared" si="3"/>
+        <v>45250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f t="shared" ref="A28:D28" si="9">A12</f>
+        <v>Lincoln2023SD19AprCVKerrin</v>
+      </c>
+      <c r="B28" s="17">
+        <f t="shared" si="9"/>
+        <v>45048</v>
+      </c>
+      <c r="C28" s="17">
+        <f t="shared" si="9"/>
+        <v>45169</v>
+      </c>
+      <c r="D28" s="17">
+        <f t="shared" si="9"/>
+        <v>45230</v>
+      </c>
+      <c r="E28" s="17">
+        <f t="shared" si="2"/>
+        <v>45248</v>
+      </c>
+      <c r="F28" s="17">
+        <f t="shared" si="3"/>
+        <v>45252</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f t="shared" ref="A29:D29" si="10">A13</f>
+        <v>Lincoln2023SD19AprCVSorrial</v>
+      </c>
+      <c r="B29" s="17">
+        <f t="shared" si="10"/>
+        <v>45047</v>
+      </c>
+      <c r="C29" s="17">
+        <f t="shared" si="10"/>
+        <v>45169</v>
+      </c>
+      <c r="D29" s="17">
+        <f t="shared" si="10"/>
+        <v>45216</v>
+      </c>
+      <c r="E29" s="17">
+        <f t="shared" si="2"/>
+        <v>45234</v>
+      </c>
+      <c r="F29" s="17">
+        <f t="shared" si="3"/>
+        <v>45238</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f t="shared" ref="A30:D30" si="11">A14</f>
+        <v>Lincoln2023SD19AprCVVoltron</v>
+      </c>
+      <c r="B30" s="17">
+        <f t="shared" si="11"/>
+        <v>45047</v>
+      </c>
+      <c r="C30" s="17">
+        <f t="shared" si="11"/>
+        <v>45169</v>
+      </c>
+      <c r="D30" s="17">
+        <f t="shared" si="11"/>
+        <v>45228</v>
+      </c>
+      <c r="E30" s="17">
+        <f t="shared" si="2"/>
+        <v>45246</v>
+      </c>
+      <c r="F30" s="17">
+        <f t="shared" si="3"/>
+        <v>45250</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f t="shared" ref="A31:D31" si="12">A15</f>
+        <v>Lincoln2023SD27MarCVGraham</v>
+      </c>
+      <c r="B31" s="17">
+        <f t="shared" si="12"/>
+        <v>45022</v>
+      </c>
+      <c r="C31" s="17">
+        <f t="shared" si="12"/>
+        <v>45152</v>
+      </c>
+      <c r="D31" s="17">
+        <f t="shared" si="12"/>
+        <v>45221</v>
+      </c>
+      <c r="E31" s="17">
+        <f t="shared" si="2"/>
+        <v>45239</v>
+      </c>
+      <c r="F31" s="17">
+        <f t="shared" si="3"/>
+        <v>45244</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f t="shared" ref="A32:D32" si="13">A16</f>
+        <v>Lincoln2023SD27MarCVKerrin</v>
+      </c>
+      <c r="B32" s="17">
+        <f t="shared" si="13"/>
+        <v>45024</v>
+      </c>
+      <c r="C32" s="17">
+        <f t="shared" si="13"/>
+        <v>45139</v>
+      </c>
+      <c r="D32" s="17">
+        <f t="shared" si="13"/>
+        <v>45223</v>
+      </c>
+      <c r="E32" s="17">
+        <f t="shared" si="2"/>
+        <v>45241</v>
+      </c>
+      <c r="F32" s="17">
+        <f t="shared" si="3"/>
+        <v>45246</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f t="shared" ref="A33:D33" si="14">A17</f>
+        <v>Lincoln2023SD27MarCVSorrial</v>
+      </c>
+      <c r="B33" s="17">
+        <f t="shared" si="14"/>
+        <v>45022</v>
+      </c>
+      <c r="C33" s="17">
+        <f t="shared" si="14"/>
+        <v>45145</v>
+      </c>
+      <c r="D33" s="17">
+        <f t="shared" si="14"/>
+        <v>45211</v>
+      </c>
+      <c r="E33" s="17">
+        <f t="shared" si="2"/>
+        <v>45229</v>
+      </c>
+      <c r="F33" s="17">
+        <f t="shared" si="3"/>
+        <v>45233</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f t="shared" ref="A34:D34" si="15">A18</f>
+        <v>Lincoln2023SD27MarCVVoltron</v>
+      </c>
+      <c r="B34" s="17">
+        <f t="shared" si="15"/>
+        <v>45022</v>
+      </c>
+      <c r="C34" s="17">
+        <f t="shared" si="15"/>
+        <v>45125</v>
+      </c>
+      <c r="D34" s="17">
+        <f t="shared" si="15"/>
+        <v>45217</v>
+      </c>
+      <c r="E34" s="17">
+        <f t="shared" si="2"/>
+        <v>45236</v>
+      </c>
+      <c r="F34" s="17">
+        <f t="shared" si="3"/>
+        <v>45241</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/Tests/Validation/Wheat/data/Lincoln2023.xlsx
+++ b/Tests/Validation/Wheat/data/Lincoln2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepos\ApsimX\Tests\Validation\Wheat\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC41435-8CD9-4819-B731-8D442CD9AEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747C948F-E69B-4C58-A9B2-8B891DEDB0AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3769" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3839" uniqueCount="93">
   <si>
     <t>SimulationName</t>
   </si>
@@ -306,6 +306,21 @@
   </si>
   <si>
     <t>Wheat.Phenology.Zadok.Stage-NotModeled</t>
+  </si>
+  <si>
+    <t>FlafLeaf</t>
+  </si>
+  <si>
+    <t>GrainFilling</t>
+  </si>
+  <si>
+    <t>HarvestRipe</t>
+  </si>
+  <si>
+    <t>2ndNodeOnMainStem</t>
+  </si>
+  <si>
+    <t>EndGrainFill</t>
   </si>
 </sst>
 </file>
@@ -62629,11 +62644,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE1866"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="6" topLeftCell="R109" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomRight" activeCell="U7" sqref="U7:V126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -62972,6 +62987,12 @@
       <c r="S7">
         <v>9.1671242849999999</v>
       </c>
+      <c r="U7">
+        <v>39</v>
+      </c>
+      <c r="V7" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -63010,6 +63031,12 @@
       <c r="S8">
         <v>6.9917530110000001</v>
       </c>
+      <c r="U8">
+        <v>60</v>
+      </c>
+      <c r="V8" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -63048,6 +63075,12 @@
       <c r="S9">
         <v>3.031436002</v>
       </c>
+      <c r="U9">
+        <v>79</v>
+      </c>
+      <c r="V9" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -63098,6 +63131,12 @@
       <c r="P10">
         <v>4.5335116000000002E-2</v>
       </c>
+      <c r="U10">
+        <v>90</v>
+      </c>
+      <c r="V10" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -63327,7 +63366,7 @@
         <v>8.2800065689999993</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -63364,8 +63403,14 @@
       <c r="S17">
         <v>7.805443007</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U17">
+        <v>39</v>
+      </c>
+      <c r="V17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -63402,8 +63447,14 @@
       <c r="S18">
         <v>6.4326701570000004</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U18">
+        <v>60</v>
+      </c>
+      <c r="V18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -63440,8 +63491,14 @@
       <c r="S19">
         <v>1.8282202089999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U19">
+        <v>79</v>
+      </c>
+      <c r="V19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -63490,8 +63547,14 @@
       <c r="P20">
         <v>4.2786942000000001E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U20">
+        <v>90</v>
+      </c>
+      <c r="V20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -63529,7 +63592,7 @@
         <v>0.111784605</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -63567,7 +63630,7 @@
         <v>0.99788239199999995</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -63604,8 +63667,14 @@
       <c r="S23">
         <v>3.1507037260000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U23">
+        <v>30</v>
+      </c>
+      <c r="V23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -63642,8 +63711,14 @@
       <c r="S24">
         <v>5.4600551260000003</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U24">
+        <v>32</v>
+      </c>
+      <c r="V24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -63680,8 +63755,14 @@
       <c r="S25">
         <v>8.6491989730000007</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U25">
+        <v>39</v>
+      </c>
+      <c r="V25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -63718,8 +63799,14 @@
       <c r="S26">
         <v>7.5838782550000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U26">
+        <v>60</v>
+      </c>
+      <c r="V26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -63756,8 +63843,14 @@
       <c r="S27">
         <v>3.944227277</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U27">
+        <v>79</v>
+      </c>
+      <c r="V27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -63806,8 +63899,14 @@
       <c r="P28">
         <v>3.9290705000000002E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U28">
+        <v>90</v>
+      </c>
+      <c r="V28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -63845,7 +63944,7 @@
         <v>0.17846519899999999</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -63883,7 +63982,7 @@
         <v>1.1048471230000001</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -63921,7 +64020,7 @@
         <v>2.2666835289999998</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -63959,7 +64058,7 @@
         <v>4.2972114469999996</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -63997,7 +64096,7 @@
         <v>5.5627188219999999</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -64034,8 +64133,14 @@
       <c r="S34">
         <v>8.5318740389999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U34">
+        <v>39</v>
+      </c>
+      <c r="V34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -64072,8 +64177,14 @@
       <c r="S35">
         <v>7.8088340599999997</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U35">
+        <v>60</v>
+      </c>
+      <c r="V35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -64110,8 +64221,14 @@
       <c r="S36">
         <v>4.1330800160000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U36">
+        <v>79</v>
+      </c>
+      <c r="V36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -64160,8 +64277,14 @@
       <c r="P37">
         <v>4.1537956000000001E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U37">
+        <v>90</v>
+      </c>
+      <c r="V37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>29</v>
       </c>
@@ -64199,7 +64322,7 @@
         <v>0.30112680600000002</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>29</v>
       </c>
@@ -64237,7 +64360,7 @@
         <v>1.551725281</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>29</v>
       </c>
@@ -64275,7 +64398,7 @@
         <v>2.114635952</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>29</v>
       </c>
@@ -64313,7 +64436,7 @@
         <v>2.3638819400000002</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>29</v>
       </c>
@@ -64350,8 +64473,14 @@
       <c r="S42">
         <v>4.747518693</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U42">
+        <v>32</v>
+      </c>
+      <c r="V42" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>29</v>
       </c>
@@ -64389,7 +64518,7 @@
         <v>8.4090034350000007</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>29</v>
       </c>
@@ -64426,8 +64555,14 @@
       <c r="S44">
         <v>8.7706887820000006</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U44">
+        <v>39</v>
+      </c>
+      <c r="V44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>29</v>
       </c>
@@ -64464,8 +64599,14 @@
       <c r="S45">
         <v>6.7804361369999997</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U45">
+        <v>60</v>
+      </c>
+      <c r="V45" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>29</v>
       </c>
@@ -64502,8 +64643,14 @@
       <c r="S46">
         <v>2.8845222499999998</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U46">
+        <v>79</v>
+      </c>
+      <c r="V46" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>29</v>
       </c>
@@ -64552,8 +64699,14 @@
       <c r="P47">
         <v>4.1070628999999997E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U47">
+        <v>90</v>
+      </c>
+      <c r="V47" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>30</v>
       </c>
@@ -64591,7 +64744,7 @@
         <v>9.5170099999999994E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>30</v>
       </c>
@@ -64629,7 +64782,7 @@
         <v>0.832403228</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>30</v>
       </c>
@@ -64666,8 +64819,14 @@
       <c r="S50">
         <v>2.5001918129999998</v>
       </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U50">
+        <v>30</v>
+      </c>
+      <c r="V50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>30</v>
       </c>
@@ -64704,8 +64863,14 @@
       <c r="S51">
         <v>4.7929767810000001</v>
       </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U51">
+        <v>32</v>
+      </c>
+      <c r="V51" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>30</v>
       </c>
@@ -64742,8 +64907,14 @@
       <c r="S52">
         <v>7.9932928780000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U52">
+        <v>39</v>
+      </c>
+      <c r="V52" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>30</v>
       </c>
@@ -64780,8 +64951,14 @@
       <c r="S53">
         <v>7.6577684540000002</v>
       </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U53">
+        <v>60</v>
+      </c>
+      <c r="V53" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>30</v>
       </c>
@@ -64818,8 +64995,14 @@
       <c r="S54">
         <v>4.226584849</v>
       </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U54">
+        <v>79</v>
+      </c>
+      <c r="V54" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>30</v>
       </c>
@@ -64868,8 +65051,14 @@
       <c r="P55">
         <v>3.6213024000000003E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U55">
+        <v>90</v>
+      </c>
+      <c r="V55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>31</v>
       </c>
@@ -64907,7 +65096,7 @@
         <v>0.41784933600000002</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>31</v>
       </c>
@@ -64945,7 +65134,7 @@
         <v>1.986494494</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>31</v>
       </c>
@@ -64983,7 +65172,7 @@
         <v>3.6943126030000002</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>31</v>
       </c>
@@ -65021,7 +65210,7 @@
         <v>5.3521747299999998</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>31</v>
       </c>
@@ -65059,7 +65248,7 @@
         <v>4.9286069960000001</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>31</v>
       </c>
@@ -65097,7 +65286,7 @@
         <v>5.8044072489999996</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>31</v>
       </c>
@@ -65134,8 +65323,14 @@
       <c r="S62">
         <v>8.0077171759999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U62">
+        <v>39</v>
+      </c>
+      <c r="V62" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>31</v>
       </c>
@@ -65172,8 +65367,14 @@
       <c r="S63">
         <v>6.290248697</v>
       </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U63">
+        <v>60</v>
+      </c>
+      <c r="V63" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>31</v>
       </c>
@@ -65210,8 +65411,14 @@
       <c r="S64">
         <v>3.1669385889999999</v>
       </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U64">
+        <v>79</v>
+      </c>
+      <c r="V64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>31</v>
       </c>
@@ -65260,8 +65467,14 @@
       <c r="P65">
         <v>4.4811206999999999E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U65">
+        <v>90</v>
+      </c>
+      <c r="V65" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>32</v>
       </c>
@@ -65299,7 +65512,7 @@
         <v>0.55831055100000004</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>32</v>
       </c>
@@ -65337,7 +65550,7 @@
         <v>2.3448339539999998</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>32</v>
       </c>
@@ -65375,7 +65588,7 @@
         <v>3.3576053610000001</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>32</v>
       </c>
@@ -65413,7 +65626,7 @@
         <v>3.3483505729999998</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>32</v>
       </c>
@@ -65450,8 +65663,14 @@
       <c r="S70">
         <v>5.2360987879999996</v>
       </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U70">
+        <v>32</v>
+      </c>
+      <c r="V70" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>32</v>
       </c>
@@ -65488,8 +65707,14 @@
       <c r="S71">
         <v>7.8778786040000002</v>
       </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U71">
+        <v>39</v>
+      </c>
+      <c r="V71" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>32</v>
       </c>
@@ -65526,8 +65751,14 @@
       <c r="S72">
         <v>6.9580777070000002</v>
       </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U72">
+        <v>60</v>
+      </c>
+      <c r="V72" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>32</v>
       </c>
@@ -65564,8 +65795,14 @@
       <c r="S73">
         <v>4.6551906570000003</v>
       </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U73">
+        <v>79</v>
+      </c>
+      <c r="V73" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>32</v>
       </c>
@@ -65614,8 +65851,14 @@
       <c r="P74">
         <v>4.3455645000000001E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U74">
+        <v>90</v>
+      </c>
+      <c r="V74" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>33</v>
       </c>
@@ -65653,7 +65896,7 @@
         <v>0.13447837100000001</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>33</v>
       </c>
@@ -65691,7 +65934,7 @@
         <v>1.06995061</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>33</v>
       </c>
@@ -65728,8 +65971,14 @@
       <c r="S77">
         <v>2.7417977100000002</v>
       </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U77">
+        <v>30</v>
+      </c>
+      <c r="V77" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>33</v>
       </c>
@@ -65766,8 +66015,14 @@
       <c r="S78">
         <v>4.4151943400000002</v>
       </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U78">
+        <v>32</v>
+      </c>
+      <c r="V78" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>33</v>
       </c>
@@ -65804,8 +66059,14 @@
       <c r="S79">
         <v>6.6267833469999999</v>
       </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U79">
+        <v>39</v>
+      </c>
+      <c r="V79" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>33</v>
       </c>
@@ -65842,8 +66103,14 @@
       <c r="S80">
         <v>6.9780389630000004</v>
       </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U80">
+        <v>60</v>
+      </c>
+      <c r="V80" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>33</v>
       </c>
@@ -65880,8 +66147,14 @@
       <c r="S81">
         <v>4.8895358199999999</v>
       </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U81">
+        <v>79</v>
+      </c>
+      <c r="V81" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>33</v>
       </c>
@@ -65930,8 +66203,14 @@
       <c r="P82">
         <v>4.4440269999999997E-2</v>
       </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U82">
+        <v>90</v>
+      </c>
+      <c r="V82" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>34</v>
       </c>
@@ -65969,7 +66248,7 @@
         <v>0.298632383</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>34</v>
       </c>
@@ -66007,7 +66286,7 @@
         <v>1.5364923539999999</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>34</v>
       </c>
@@ -66045,7 +66324,7 @@
         <v>3.5987345730000002</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>34</v>
       </c>
@@ -66083,7 +66362,7 @@
         <v>4.2978236699999997</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>34</v>
       </c>
@@ -66121,7 +66400,7 @@
         <v>5.7396719359999997</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>34</v>
       </c>
@@ -66159,7 +66438,7 @@
         <v>5.2155868720000003</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>34</v>
       </c>
@@ -66196,8 +66475,14 @@
       <c r="S89">
         <v>8.7662585289999999</v>
       </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U89">
+        <v>39</v>
+      </c>
+      <c r="V89" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>34</v>
       </c>
@@ -66234,8 +66519,14 @@
       <c r="S90">
         <v>6.9086497590000002</v>
       </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U90">
+        <v>60</v>
+      </c>
+      <c r="V90" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>34</v>
       </c>
@@ -66272,8 +66563,14 @@
       <c r="S91">
         <v>3.903384601</v>
       </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U91">
+        <v>79</v>
+      </c>
+      <c r="V91" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>34</v>
       </c>
@@ -66322,8 +66619,14 @@
       <c r="P92">
         <v>4.4291780000000003E-2</v>
       </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U92">
+        <v>90</v>
+      </c>
+      <c r="V92" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>35</v>
       </c>
@@ -66361,7 +66664,7 @@
         <v>0.42581798599999998</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>35</v>
       </c>
@@ -66399,7 +66702,7 @@
         <v>2.300822675</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>35</v>
       </c>
@@ -66437,7 +66740,7 @@
         <v>2.9564560110000002</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>35</v>
       </c>
@@ -66475,7 +66778,7 @@
         <v>2.6335862529999998</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>35</v>
       </c>
@@ -66513,7 +66816,7 @@
         <v>4.5004497480000003</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>35</v>
       </c>
@@ -66551,7 +66854,7 @@
         <v>8.7208325640000002</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>35</v>
       </c>
@@ -66588,8 +66891,14 @@
       <c r="S99">
         <v>8.1373795520000005</v>
       </c>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U99">
+        <v>39</v>
+      </c>
+      <c r="V99" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>35</v>
       </c>
@@ -66626,8 +66935,14 @@
       <c r="S100">
         <v>7.0123124219999999</v>
       </c>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U100">
+        <v>60</v>
+      </c>
+      <c r="V100" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>35</v>
       </c>
@@ -66664,8 +66979,14 @@
       <c r="S101">
         <v>3.292981884</v>
       </c>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U101">
+        <v>79</v>
+      </c>
+      <c r="V101" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>35</v>
       </c>
@@ -66714,8 +67035,14 @@
       <c r="P102">
         <v>4.2917726000000003E-2</v>
       </c>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U102">
+        <v>90</v>
+      </c>
+      <c r="V102" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>36</v>
       </c>
@@ -66753,7 +67080,7 @@
         <v>0.126097761</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>36</v>
       </c>
@@ -66791,7 +67118,7 @@
         <v>0.97963529500000002</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>36</v>
       </c>
@@ -66828,8 +67155,14 @@
       <c r="S105">
         <v>2.6580066819999999</v>
       </c>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U105">
+        <v>30</v>
+      </c>
+      <c r="V105" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>36</v>
       </c>
@@ -66866,8 +67199,14 @@
       <c r="S106">
         <v>5.0239455939999997</v>
       </c>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U106">
+        <v>32</v>
+      </c>
+      <c r="V106" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>36</v>
       </c>
@@ -66904,8 +67243,14 @@
       <c r="S107">
         <v>7.952495077</v>
       </c>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U107">
+        <v>39</v>
+      </c>
+      <c r="V107" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>36</v>
       </c>
@@ -66942,8 +67287,14 @@
       <c r="S108">
         <v>7.2405623859999997</v>
       </c>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U108">
+        <v>60</v>
+      </c>
+      <c r="V108" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>36</v>
       </c>
@@ -66980,8 +67331,14 @@
       <c r="S109">
         <v>3.9712046430000001</v>
       </c>
-    </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U109">
+        <v>79</v>
+      </c>
+      <c r="V109" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>36</v>
       </c>
@@ -67030,8 +67387,14 @@
       <c r="P110">
         <v>3.6001126000000001E-2</v>
       </c>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U110">
+        <v>90</v>
+      </c>
+      <c r="V110" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>37</v>
       </c>
@@ -67069,7 +67432,7 @@
         <v>0.11363327199999999</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>37</v>
       </c>
@@ -67144,6 +67507,12 @@
       <c r="S113">
         <v>4.0657695010000001</v>
       </c>
+      <c r="U113">
+        <v>30</v>
+      </c>
+      <c r="V113" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
@@ -67182,6 +67551,12 @@
       <c r="S114">
         <v>3.8710286620000001</v>
       </c>
+      <c r="U114">
+        <v>32</v>
+      </c>
+      <c r="V114" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
@@ -67220,6 +67595,12 @@
       <c r="S115">
         <v>9.0441546759999998</v>
       </c>
+      <c r="U115">
+        <v>39</v>
+      </c>
+      <c r="V115" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
@@ -67258,6 +67639,12 @@
       <c r="S116">
         <v>7.5074018699999998</v>
       </c>
+      <c r="U116">
+        <v>60</v>
+      </c>
+      <c r="V116" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
@@ -67296,6 +67683,12 @@
       <c r="S117">
         <v>4.751518785</v>
       </c>
+      <c r="U117">
+        <v>79</v>
+      </c>
+      <c r="V117" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
@@ -67346,6 +67739,12 @@
       <c r="P118">
         <v>3.7851594000000002E-2</v>
       </c>
+      <c r="U118">
+        <v>90</v>
+      </c>
+      <c r="V118" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
@@ -67460,6 +67859,12 @@
       <c r="S121">
         <v>2.598802777</v>
       </c>
+      <c r="U121">
+        <v>30</v>
+      </c>
+      <c r="V121" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
@@ -67498,6 +67903,12 @@
       <c r="S122">
         <v>4.0273256340000003</v>
       </c>
+      <c r="U122">
+        <v>32</v>
+      </c>
+      <c r="V122" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
@@ -67536,6 +67947,12 @@
       <c r="S123">
         <v>7.0854080960000001</v>
       </c>
+      <c r="U123">
+        <v>39</v>
+      </c>
+      <c r="V123" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
@@ -67574,6 +67991,12 @@
       <c r="S124">
         <v>5.9431640489999999</v>
       </c>
+      <c r="U124">
+        <v>60</v>
+      </c>
+      <c r="V124" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="125" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
@@ -67612,6 +68035,12 @@
       <c r="S125">
         <v>3.911031666</v>
       </c>
+      <c r="U125">
+        <v>79</v>
+      </c>
+      <c r="V125" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="126" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
@@ -67661,6 +68090,12 @@
       </c>
       <c r="P126">
         <v>3.5139576999999998E-2</v>
+      </c>
+      <c r="U126">
+        <v>90</v>
+      </c>
+      <c r="V126" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="127" spans="1:23" x14ac:dyDescent="0.25">
@@ -94480,7 +94915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D3A1DD-6556-4C13-9BED-B6412B226627}">
   <dimension ref="A3:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A20" sqref="A20:F34"/>
     </sheetView>
   </sheetViews>
